--- a/medicine/Sexualité et sexologie/Camgirl/Camgirl.xlsx
+++ b/medicine/Sexualité et sexologie/Camgirl/Camgirl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une camgirl ou cam-girl est une femme exposant son corps sur Internet de manière sexuellement explicite par le biais d'une webcam, souvent pour gagner de l'argent[1]. Le terme connexe correspondant aux hommes est « camboy » ou « cam-boy »[1].
-Les camgirls qui font usage de leur webcam à des fins sexuelles et avec rétribution financière (pornographie sur Internet) sont parfois nommées camwhore[2],[3] dans un contexte péjoratif.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une camgirl ou cam-girl est une femme exposant son corps sur Internet de manière sexuellement explicite par le biais d'une webcam, souvent pour gagner de l'argent. Le terme connexe correspondant aux hommes est « camboy » ou « cam-boy ».
+Les camgirls qui font usage de leur webcam à des fins sexuelles et avec rétribution financière (pornographie sur Internet) sont parfois nommées camwhore, dans un contexte péjoratif.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit pour elles d'encourager les internautes à leur acheter des objets ou à les ajouter sur leur compte en ligne[4]. Elles peuvent également gagner de l'argent en sponsorisant d'autres sites Internet et gagner des commissions en convainquant les internautes de s'abonner à des sites payants[3]. Les commissions qu'obtiennent les camgirls varient grandement selon les sites[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit pour elles d'encourager les internautes à leur acheter des objets ou à les ajouter sur leur compte en ligne. Elles peuvent également gagner de l'argent en sponsorisant d'autres sites Internet et gagner des commissions en convainquant les internautes de s'abonner à des sites payants. Les commissions qu'obtiennent les camgirls varient grandement selon les sites.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Impact social</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2015, l'engouement des internautes, de la presse et des médias ne cesse d'augmenter pour les camgirls[5], prenant le pas sur l'industrie du porno en berne[6]. Selon une enquête IFOP pour Camgirl.tv en 2016, les 18-24 ans seraient les plus grands consommateurs de sites de sexcam[7].
-En 2016, plus de 14 000 camgirls sont répertoriées à travers le monde[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2015, l'engouement des internautes, de la presse et des médias ne cesse d'augmenter pour les camgirls, prenant le pas sur l'industrie du porno en berne. Selon une enquête IFOP pour Camgirl.tv en 2016, les 18-24 ans seraient les plus grands consommateurs de sites de sexcam.
+En 2016, plus de 14 000 camgirls sont répertoriées à travers le monde,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste chronologique des sites de camgirls notoires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LiveJasmin (en) fut lancé par György Gattyán en 2001[10], MyFreeCams (en) fut fondé par Leonid Radvinsky en 2004[10], Chaturbate, 2011[11], BongaCams (en), 2012[10], et Stripchat, 2016[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LiveJasmin (en) fut lancé par György Gattyán en 2001, MyFreeCams (en) fut fondé par Leonid Radvinsky en 2004, Chaturbate, 2011, BongaCams (en), 2012, et Stripchat, 2016.
 </t>
         </is>
       </c>
